--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -1,28 +1,343 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AL$61</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划Review日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际Review日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜真卿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方朔画像赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭侄文稿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多宝塔碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻姑仙坛记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜勤礼碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴颂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜家庙碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>争座位帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自书告身帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乞米帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴将军碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝学诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋璟碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化度寺塔铭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九成宫醴泉铭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞恭公温彦博碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇甫诞碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝阴符经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荐福寺碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翰思鲈帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>兰亭记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦奠帖</t>
+  </si>
+  <si>
+    <t>卜商帖</t>
+  </si>
+  <si>
+    <t>赵孟頫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神赋</t>
+  </si>
+  <si>
+    <t>道德经</t>
+  </si>
+  <si>
+    <t>胆巴碑</t>
+  </si>
+  <si>
+    <t>玄妙观重修三门记</t>
+  </si>
+  <si>
+    <t>临黄庭经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰亭十一跋</t>
+  </si>
+  <si>
+    <t>归田赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳公权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄秘塔碑</t>
+  </si>
+  <si>
+    <t>神策军碑</t>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -34,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -42,23 +357,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +898,3101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16:AE16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="4"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="13"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="13"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="13"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="13"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="13"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="13"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="13"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="13"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="13"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="13"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="13"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="13"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="13"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="13"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="32">
+        <v>2</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="13"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="13"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="13"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="13"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="13"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="13"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="13"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="13"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="13"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="13"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="13"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="32">
+        <v>3</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="13"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="13"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="13"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="13"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="13"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="13"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="13"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="13"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="32">
+        <v>4</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="13"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="13"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="13"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="13"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="13"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="13"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="13"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="13"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="13"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="27"/>
+      <c r="AJ48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="13"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AL49" s="13"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="27"/>
+      <c r="AI50" s="27"/>
+      <c r="AJ50" s="27"/>
+      <c r="AK50" s="27"/>
+      <c r="AL50" s="13"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="13"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="27"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="27"/>
+      <c r="AL52" s="13"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="27"/>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="27"/>
+      <c r="AL53" s="13"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="27"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="27"/>
+      <c r="AL54" s="13"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="27"/>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="27"/>
+      <c r="AJ55" s="27"/>
+      <c r="AK55" s="27"/>
+      <c r="AL55" s="13"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="27"/>
+      <c r="AI56" s="27"/>
+      <c r="AJ56" s="27"/>
+      <c r="AK56" s="27"/>
+      <c r="AL56" s="13"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="27"/>
+      <c r="AJ57" s="27"/>
+      <c r="AK57" s="27"/>
+      <c r="AL57" s="13"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="27"/>
+      <c r="AI58" s="27"/>
+      <c r="AJ58" s="27"/>
+      <c r="AK58" s="27"/>
+      <c r="AL58" s="13"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="13"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="27"/>
+      <c r="AH60" s="27"/>
+      <c r="AI60" s="27"/>
+      <c r="AJ60" s="27"/>
+      <c r="AK60" s="27"/>
+      <c r="AL60" s="13"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="450">
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="AJ59:AK59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AE60"/>
+    <mergeCell ref="AF60:AI60"/>
+    <mergeCell ref="AJ60:AK60"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AB59:AE59"/>
+    <mergeCell ref="AF59:AI59"/>
+    <mergeCell ref="AJ57:AK57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="AF58:AI58"/>
+    <mergeCell ref="AJ58:AK58"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="AF57:AI57"/>
+    <mergeCell ref="AJ55:AK55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AB56:AE56"/>
+    <mergeCell ref="AF56:AI56"/>
+    <mergeCell ref="AJ56:AK56"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="AB55:AE55"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="AJ53:AK53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="AB54:AE54"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="AJ54:AK54"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="AB51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
+    <mergeCell ref="AJ49:AK49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="AF50:AI50"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="AF49:AI49"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="AF48:AI48"/>
+    <mergeCell ref="AJ48:AK48"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AJ45:AK45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AJ46:AK46"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AF42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AB4:AE5"/>
+    <mergeCell ref="AF4:AI5"/>
+    <mergeCell ref="AJ4:AK5"/>
+    <mergeCell ref="E4:L5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:U5"/>
+    <mergeCell ref="V4:X5"/>
+    <mergeCell ref="Y4:AA5"/>
+    <mergeCell ref="M4:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -1,40 +1,383 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AL$61</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划Review日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际Review日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜真卿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方朔画像赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭侄文稿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多宝塔碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻姑仙坛记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜勤礼碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴颂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜家庙碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>争座位帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自书告身帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝学诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化度寺塔铭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九成宫醴泉铭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞恭公温彦博碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇甫诞碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝阴符经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>兰亭记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦奠帖</t>
+  </si>
+  <si>
+    <t>卜商帖</t>
+  </si>
+  <si>
+    <t>赵孟頫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神赋</t>
+  </si>
+  <si>
+    <t>道德经</t>
+  </si>
+  <si>
+    <t>胆巴碑</t>
+  </si>
+  <si>
+    <t>临黄庭经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰亭十一跋</t>
+  </si>
+  <si>
+    <t>归田赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳公权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄秘塔碑</t>
+  </si>
+  <si>
+    <t>神策军碑</t>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>乞米帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴将军碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋璟碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>荐福寺碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>正草千字文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翰思鲈帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄妙观重修三门记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已故总管张公墓志铭（扫描）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -42,23 +385,284 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +947,3058 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BF9" sqref="BF9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="4"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="13"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="13"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="13"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="13"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="13"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="13"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="13"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="13"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="13"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="13"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="13"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="13"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="13"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="13"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="13"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="13"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="13"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="13"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="13"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="13"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="13"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="13"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="13"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="13"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="13"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="13"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="17">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="13"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="13"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="13"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="13"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="13"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="13"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="13"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="13"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="13"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="17">
+        <v>4</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="13"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="13"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="13"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="13"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="13"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="13"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="13"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="22"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="13"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="13"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="22"/>
+      <c r="AJ50" s="22"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="13"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="13"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="13"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="13"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="22"/>
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="22"/>
+      <c r="AJ54" s="22"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="13"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="13"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="13"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="13"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="22"/>
+      <c r="AI58" s="22"/>
+      <c r="AJ58" s="22"/>
+      <c r="AK58" s="14"/>
+      <c r="AL58" s="13"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="14"/>
+      <c r="AL59" s="13"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="14"/>
+      <c r="AL60" s="13"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="395">
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="11445"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AL$61</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -312,6 +312,28 @@
   </si>
   <si>
     <t>3.8</t>
+  </si>
+  <si>
+    <t>刘冰星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王东鸿</t>
+  </si>
+  <si>
+    <t>王东鸿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斯泳</t>
+  </si>
+  <si>
+    <t>陈斯泳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +603,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,6 +631,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,13 +654,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,26 +663,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BF9" sqref="BF9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1081,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="33" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="23" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="23" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="23" t="s">
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="23" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="23" t="s">
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="30"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="32"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="37"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1195,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1239,29 +1264,35 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
+      <c r="N7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="29">
+        <v>41268</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29">
+        <v>41269</v>
+      </c>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1283,29 +1314,35 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
+      <c r="N8" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="29">
+        <v>41270</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29">
+        <v>41271</v>
+      </c>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1327,29 +1364,35 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
+      <c r="N9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="29">
+        <v>41272</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29">
+        <v>41273</v>
+      </c>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1371,29 +1414,35 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
+      <c r="N10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="29">
+        <v>41274</v>
+      </c>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="29">
+        <v>41275</v>
+      </c>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1415,29 +1464,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
+      <c r="N11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>41276</v>
+      </c>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29">
+        <v>41277</v>
+      </c>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1459,29 +1514,35 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
+      <c r="N12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>41278</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29">
+        <v>41279</v>
+      </c>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1503,29 +1564,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
+      <c r="N13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="29">
+        <v>41280</v>
+      </c>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29">
+        <v>41281</v>
+      </c>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1547,29 +1614,35 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
+      <c r="N14" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="29">
+        <v>41282</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29">
+        <v>41283</v>
+      </c>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1591,29 +1664,35 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
+      <c r="N15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="29">
+        <v>41284</v>
+      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29">
+        <v>41285</v>
+      </c>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1635,29 +1714,35 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
+      <c r="N16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="29">
+        <v>41286</v>
+      </c>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29">
+        <v>41287</v>
+      </c>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1679,29 +1764,35 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
+      <c r="N17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="29">
+        <v>41288</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29">
+        <v>41289</v>
+      </c>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1723,73 +1814,79 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
+      <c r="N18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="29">
+        <v>41290</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29">
+        <v>41291</v>
+      </c>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="38" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1811,29 +1908,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1855,29 +1952,35 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
+      <c r="N21" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="29">
+        <v>41268</v>
+      </c>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29">
+        <v>41269</v>
+      </c>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -1899,29 +2002,35 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
+      <c r="N22" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="29">
+        <v>41268</v>
+      </c>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="29">
+        <v>41269</v>
+      </c>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -1943,29 +2052,35 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
+      <c r="N23" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="29">
+        <v>41270</v>
+      </c>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29">
+        <v>41271</v>
+      </c>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -1987,29 +2102,35 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
+      <c r="N24" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="29">
+        <v>41270</v>
+      </c>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29">
+        <v>41271</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2031,73 +2152,79 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
+      <c r="N25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="29">
+        <v>41272</v>
+      </c>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="29">
+        <v>41273</v>
+      </c>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="38" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2119,29 +2246,35 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
+      <c r="N27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="29">
+        <v>41272</v>
+      </c>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29">
+        <v>41273</v>
+      </c>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2163,29 +2296,35 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
+      <c r="N28" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="29">
+        <v>41274</v>
+      </c>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="29">
+        <v>41275</v>
+      </c>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2207,29 +2346,35 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
+      <c r="N29" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="29">
+        <v>41274</v>
+      </c>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="29">
+        <v>41275</v>
+      </c>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2241,7 +2386,7 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="23" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="9"/>
@@ -2251,29 +2396,35 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
+      <c r="N30" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="29">
+        <v>41276</v>
+      </c>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="29">
+        <v>41277</v>
+      </c>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2295,29 +2446,35 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
+      <c r="N31" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="29">
+        <v>41276</v>
+      </c>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="29">
+        <v>41277</v>
+      </c>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2339,29 +2496,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2383,29 +2540,35 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
+      <c r="N33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="29">
+        <v>41268</v>
+      </c>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29">
+        <v>41269</v>
+      </c>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2427,29 +2590,35 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
+      <c r="N34" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="29">
+        <v>41270</v>
+      </c>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="29">
+        <v>41271</v>
+      </c>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2471,29 +2640,35 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
+      <c r="N35" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="29">
+        <v>41272</v>
+      </c>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="29">
+        <v>41273</v>
+      </c>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2515,29 +2690,35 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
+      <c r="N36" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="29">
+        <v>41274</v>
+      </c>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="29">
+        <v>41275</v>
+      </c>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2559,29 +2740,35 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
+      <c r="N37" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="29">
+        <v>41276</v>
+      </c>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="29">
+        <v>41277</v>
+      </c>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2603,29 +2790,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
+      <c r="N38" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="29">
+        <v>41278</v>
+      </c>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="29">
+        <v>41279</v>
+      </c>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2647,29 +2840,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
+      <c r="N39" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="29">
+        <v>41280</v>
+      </c>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="29">
+        <v>41281</v>
+      </c>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2691,29 +2890,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
+      <c r="N40" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="29">
+        <v>41282</v>
+      </c>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="29">
+        <v>41283</v>
+      </c>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -2735,29 +2940,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -2779,29 +2984,35 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
+      <c r="N42" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="29">
+        <v>41278</v>
+      </c>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="29">
+        <v>41279</v>
+      </c>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -2823,29 +3034,35 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
+      <c r="N43" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="29">
+        <v>41278</v>
+      </c>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29">
+        <v>41279</v>
+      </c>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -2867,29 +3084,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
+      <c r="N44" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="29">
+        <v>41284</v>
+      </c>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29">
+        <v>41285</v>
+      </c>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -2907,29 +3130,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -2947,29 +3170,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -2987,29 +3210,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3027,29 +3250,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3067,29 +3290,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3107,29 +3330,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3147,29 +3370,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3187,29 +3410,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="28"/>
+      <c r="AJ52" s="28"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3227,29 +3450,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3267,29 +3490,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="22"/>
-      <c r="AI54" s="22"/>
-      <c r="AJ54" s="22"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3307,29 +3530,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="22"/>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3347,29 +3570,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3387,29 +3610,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="22"/>
-      <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="28"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3427,29 +3650,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="22"/>
-      <c r="AJ58" s="22"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3467,29 +3690,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3507,29 +3730,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3591,6 +3814,7 @@
     <mergeCell ref="N4:P5"/>
     <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="W7:Y7"/>
@@ -3783,12 +4007,6 @@
     <mergeCell ref="Z37:AB37"/>
     <mergeCell ref="AC37:AF37"/>
     <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
     <mergeCell ref="Q39:S39"/>
     <mergeCell ref="T39:V39"/>
     <mergeCell ref="W39:Y39"/>
@@ -3801,18 +4019,18 @@
     <mergeCell ref="Z40:AB40"/>
     <mergeCell ref="AC40:AF40"/>
     <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
     <mergeCell ref="Q43:S43"/>
     <mergeCell ref="T43:V43"/>
     <mergeCell ref="W43:Y43"/>
     <mergeCell ref="Z43:AB43"/>
     <mergeCell ref="AC43:AF43"/>
     <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
     <mergeCell ref="Q42:S42"/>
     <mergeCell ref="T42:V42"/>
     <mergeCell ref="W42:Y42"/>
@@ -3831,6 +4049,12 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="AC45:AF45"/>
     <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
     <mergeCell ref="Q48:S48"/>
     <mergeCell ref="T48:V48"/>
     <mergeCell ref="W48:Y48"/>
@@ -3879,6 +4103,12 @@
     <mergeCell ref="Z53:AB53"/>
     <mergeCell ref="AC53:AF53"/>
     <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
     <mergeCell ref="Q55:S55"/>
     <mergeCell ref="T55:V55"/>
     <mergeCell ref="W55:Y55"/>
@@ -3891,16 +4121,6 @@
     <mergeCell ref="Z56:AB56"/>
     <mergeCell ref="AC56:AF56"/>
     <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
@@ -3910,17 +4130,6 @@
     <mergeCell ref="T60:V60"/>
     <mergeCell ref="W60:Y60"/>
     <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="N20:P20"/>
@@ -3936,6 +4145,20 @@
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
     <mergeCell ref="N34:P34"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="N36:P36"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>东方朔画像赞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>祭侄文稿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -333,6 +329,10 @@
   </si>
   <si>
     <t>陈斯泳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方朔画赞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,21 +621,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,6 +655,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39:Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="30" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="30" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="30" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="30" t="s">
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="30" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1220,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1250,12 +1250,12 @@
       <c r="A7" s="11"/>
       <c r="B7" s="8"/>
       <c r="C7" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1264,35 +1264,39 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="29">
+      <c r="N7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41">
         <v>41268</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="41">
         <v>41269</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="41">
+        <v>41269</v>
+      </c>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="41">
+        <v>41269</v>
+      </c>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1300,12 +1304,12 @@
       <c r="A8" s="11"/>
       <c r="B8" s="8"/>
       <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1314,35 +1318,35 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="29">
+      <c r="N8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41">
         <v>41270</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29">
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="41">
         <v>41271</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1350,12 +1354,12 @@
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1364,35 +1368,35 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="29">
+      <c r="N9" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41">
         <v>41272</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="41">
         <v>41273</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1400,12 +1404,12 @@
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1414,35 +1418,35 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="29">
+      <c r="N10" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41">
         <v>41274</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29">
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="41">
         <v>41275</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1450,12 +1454,12 @@
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1464,35 +1468,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="29">
+      <c r="N11" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41">
         <v>41276</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="41">
         <v>41277</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1500,49 +1504,48 @@
       <c r="A12" s="11"/>
       <c r="B12" s="8"/>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="29">
+      <c r="N12" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41">
         <v>41278</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29">
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="41">
         <v>41279</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1550,12 +1553,12 @@
       <c r="A13" s="11"/>
       <c r="B13" s="8"/>
       <c r="C13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1564,35 +1567,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="29">
+      <c r="N13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41">
         <v>41280</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29">
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="41">
         <v>41281</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1600,12 +1603,12 @@
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1614,35 +1617,35 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="29">
+      <c r="N14" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41">
         <v>41282</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29">
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="41">
         <v>41283</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1650,12 +1653,12 @@
       <c r="A15" s="11"/>
       <c r="B15" s="8"/>
       <c r="C15" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1664,35 +1667,35 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29">
+      <c r="N15" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41">
         <v>41284</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="41">
         <v>41285</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1700,12 +1703,12 @@
       <c r="A16" s="11"/>
       <c r="B16" s="8"/>
       <c r="C16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1714,35 +1717,35 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29">
+      <c r="N16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41">
         <v>41286</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29">
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="41">
         <v>41287</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1750,12 +1753,12 @@
       <c r="A17" s="11"/>
       <c r="B17" s="8"/>
       <c r="C17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1764,35 +1767,35 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29">
+      <c r="N17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41">
         <v>41288</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="29">
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="41">
         <v>41289</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1800,12 +1803,12 @@
       <c r="A18" s="11"/>
       <c r="B18" s="8"/>
       <c r="C18" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1814,35 +1817,35 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="29">
+      <c r="N18" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41">
         <v>41290</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29">
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="41">
         <v>41291</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
@@ -1850,12 +1853,12 @@
       <c r="A19" s="11"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="19"/>
       <c r="F19" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1864,29 +1867,29 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1898,7 +1901,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="10"/>
       <c r="E20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1908,29 +1911,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1938,12 +1941,12 @@
       <c r="A21" s="11"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1952,35 +1955,35 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="29">
+      <c r="N21" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41">
         <v>41268</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29">
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="41">
         <v>41269</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -1988,12 +1991,12 @@
       <c r="A22" s="11"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2002,35 +2005,35 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="29">
+      <c r="N22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41">
         <v>41268</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29">
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="41">
         <v>41269</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -2038,12 +2041,12 @@
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2052,35 +2055,35 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="29">
+      <c r="N23" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41">
         <v>41270</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29">
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="41">
         <v>41271</v>
       </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -2088,12 +2091,12 @@
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2102,35 +2105,35 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="29">
+      <c r="N24" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41">
         <v>41270</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29">
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="41">
         <v>41271</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2138,12 +2141,12 @@
       <c r="A25" s="11"/>
       <c r="B25" s="8"/>
       <c r="C25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2152,35 +2155,35 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="29">
+      <c r="N25" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41">
         <v>41272</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29">
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="41">
         <v>41273</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
@@ -2188,12 +2191,12 @@
       <c r="A26" s="11"/>
       <c r="B26" s="19"/>
       <c r="C26" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="19"/>
       <c r="F26" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -2202,29 +2205,29 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2232,12 +2235,12 @@
       <c r="A27" s="11"/>
       <c r="B27" s="8"/>
       <c r="C27" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2246,35 +2249,35 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="29">
+      <c r="N27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41">
         <v>41272</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="29">
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="41">
         <v>41273</v>
       </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2282,12 +2285,12 @@
       <c r="A28" s="11"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2296,35 +2299,35 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="29">
+      <c r="N28" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41">
         <v>41274</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="29">
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="41">
         <v>41275</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2332,12 +2335,12 @@
       <c r="A29" s="11"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2346,35 +2349,35 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="29">
+      <c r="N29" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41">
         <v>41274</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="29">
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="41">
         <v>41275</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2382,12 +2385,12 @@
       <c r="A30" s="11"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2396,35 +2399,35 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="29">
+      <c r="N30" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41">
         <v>41276</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="29">
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="41">
         <v>41277</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2432,12 +2435,12 @@
       <c r="A31" s="11"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2446,35 +2449,35 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="29">
+      <c r="N31" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41">
         <v>41276</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29">
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="41">
         <v>41277</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2486,7 +2489,7 @@
       <c r="C32" s="15"/>
       <c r="D32" s="10"/>
       <c r="E32" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2496,29 +2499,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2526,12 +2529,12 @@
       <c r="A33" s="11"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -2540,35 +2543,39 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="29">
+      <c r="N33" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41">
         <v>41268</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29">
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="41">
         <v>41269</v>
       </c>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="41">
+        <v>41269</v>
+      </c>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="41">
+        <v>41269</v>
+      </c>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2576,12 +2583,12 @@
       <c r="A34" s="11"/>
       <c r="B34" s="8"/>
       <c r="C34" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -2590,35 +2597,39 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="29">
+      <c r="N34" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41">
         <v>41270</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="29">
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="41">
         <v>41271</v>
       </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="41">
+        <v>41269</v>
+      </c>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="41">
+        <v>41269</v>
+      </c>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2626,12 +2637,12 @@
       <c r="A35" s="11"/>
       <c r="B35" s="8"/>
       <c r="C35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2640,35 +2651,39 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="29">
+      <c r="N35" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41">
         <v>41272</v>
       </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="29">
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="41">
         <v>41273</v>
       </c>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="41">
+        <v>41269</v>
+      </c>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="41">
+        <v>41269</v>
+      </c>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2676,12 +2691,12 @@
       <c r="A36" s="11"/>
       <c r="B36" s="8"/>
       <c r="C36" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2690,35 +2705,35 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="29">
+      <c r="N36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41">
         <v>41274</v>
       </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="29">
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="41">
         <v>41275</v>
       </c>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2726,12 +2741,12 @@
       <c r="A37" s="11"/>
       <c r="B37" s="8"/>
       <c r="C37" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2740,35 +2755,39 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="29">
+      <c r="N37" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41">
         <v>41276</v>
       </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="29">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="41">
         <v>41277</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="41">
+        <v>41269</v>
+      </c>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="41">
+        <v>41269</v>
+      </c>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2776,12 +2795,12 @@
       <c r="A38" s="11"/>
       <c r="B38" s="8"/>
       <c r="C38" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2790,35 +2809,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="29">
+      <c r="N38" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41">
         <v>41278</v>
       </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="29">
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="41">
         <v>41279</v>
       </c>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2826,12 +2845,12 @@
       <c r="A39" s="11"/>
       <c r="B39" s="8"/>
       <c r="C39" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2840,35 +2859,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="29">
+      <c r="N39" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41">
         <v>41280</v>
       </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="29">
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="41">
         <v>41281</v>
       </c>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2876,12 +2895,12 @@
       <c r="A40" s="11"/>
       <c r="B40" s="8"/>
       <c r="C40" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2890,35 +2909,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="29">
+      <c r="N40" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41">
         <v>41282</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="29">
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="41">
         <v>41283</v>
       </c>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -2930,7 +2949,7 @@
       <c r="C41" s="15"/>
       <c r="D41" s="10"/>
       <c r="E41" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -2940,29 +2959,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -2970,12 +2989,12 @@
       <c r="A42" s="11"/>
       <c r="B42" s="8"/>
       <c r="C42" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2984,35 +3003,35 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="29">
+      <c r="N42" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41">
         <v>41278</v>
       </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="29">
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="41">
         <v>41279</v>
       </c>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -3020,12 +3039,12 @@
       <c r="A43" s="11"/>
       <c r="B43" s="8"/>
       <c r="C43" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -3034,35 +3053,35 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="29">
+      <c r="N43" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41">
         <v>41278</v>
       </c>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="29">
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="41">
         <v>41279</v>
       </c>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -3070,12 +3089,12 @@
       <c r="A44" s="11"/>
       <c r="B44" s="8"/>
       <c r="C44" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -3084,35 +3103,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="29">
+      <c r="N44" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41">
         <v>41284</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="29">
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="41">
         <v>41285</v>
       </c>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -3130,29 +3149,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -3170,29 +3189,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -3210,29 +3229,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3250,29 +3269,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3290,29 +3309,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3330,29 +3349,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3370,29 +3389,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="37"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3410,29 +3429,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3450,29 +3469,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3490,29 +3509,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="28"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3530,29 +3549,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="28"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3570,29 +3589,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="28"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3610,29 +3629,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="28"/>
-      <c r="AJ57" s="28"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3650,29 +3669,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3690,29 +3709,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3730,29 +3749,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3798,329 +3817,54 @@
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AG32:AJ32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AG30:AJ30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
@@ -4145,54 +3889,329 @@
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -621,21 +621,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,6 +655,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39:Y39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18:AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="30" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="30" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="30" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="30" t="s">
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="30" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1220,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1264,39 +1264,39 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="29">
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41">
         <v>41268</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="41">
         <v>41269</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29">
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="41">
         <v>41269</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="29">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="41">
         <v>41269</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1317,39 +1317,39 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="29">
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41">
         <v>41270</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29">
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="41">
         <v>41271</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29">
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="41">
         <v>41270</v>
       </c>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29">
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="41">
         <v>41271</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1371,35 +1371,39 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="29">
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41">
         <v>41272</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="41">
         <v>41273</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="41">
+        <v>41272</v>
+      </c>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="41">
+        <v>41273</v>
+      </c>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1421,35 +1425,35 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="29">
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41">
         <v>41274</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29">
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="41">
         <v>41275</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1471,35 +1475,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="29">
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41">
         <v>41276</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="41">
         <v>41277</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1518,35 +1522,35 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="29">
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41">
         <v>41278</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29">
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="41">
         <v>41279</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1568,35 +1572,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="29">
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41">
         <v>41280</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29">
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="41">
         <v>41281</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1618,35 +1622,35 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="29">
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41">
         <v>41282</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29">
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="41">
         <v>41283</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1668,35 +1672,35 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29">
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41">
         <v>41284</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="41">
         <v>41285</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1718,35 +1722,35 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41">
         <v>41286</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29">
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="41">
         <v>41287</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1768,35 +1772,35 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29">
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41">
         <v>41288</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="29">
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="41">
         <v>41289</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1818,35 +1822,35 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="29">
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41">
         <v>41290</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29">
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="41">
         <v>41291</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
@@ -1868,29 +1872,29 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1912,29 +1916,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1956,35 +1960,35 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="29">
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41">
         <v>41268</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29">
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="41">
         <v>41269</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -2006,35 +2010,35 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="29">
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41">
         <v>41268</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29">
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="41">
         <v>41269</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -2056,35 +2060,35 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="29">
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41">
         <v>41270</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29">
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="41">
         <v>41271</v>
       </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -2106,35 +2110,35 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="29">
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41">
         <v>41270</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29">
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="41">
         <v>41271</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2156,35 +2160,35 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="29">
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41">
         <v>41272</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29">
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="41">
         <v>41273</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
@@ -2206,29 +2210,29 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2250,35 +2254,35 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="29">
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41">
         <v>41272</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="29">
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="41">
         <v>41273</v>
       </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2300,35 +2304,35 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="29">
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41">
         <v>41274</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="29">
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="41">
         <v>41275</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2350,35 +2354,35 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="29">
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41">
         <v>41274</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="29">
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="41">
         <v>41275</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2400,35 +2404,35 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="29">
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41">
         <v>41276</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="29">
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="41">
         <v>41277</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2450,35 +2454,35 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="29">
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41">
         <v>41276</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29">
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="41">
         <v>41277</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2500,29 +2504,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2544,39 +2548,39 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="29">
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41">
         <v>41268</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29">
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="41">
         <v>41269</v>
       </c>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29">
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="41">
         <v>41269</v>
       </c>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="29">
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="41">
         <v>41269</v>
       </c>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2598,39 +2602,39 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="29">
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41">
         <v>41270</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="29">
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="41">
         <v>41271</v>
       </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="29">
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="41">
         <v>41269</v>
       </c>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29">
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="41">
         <v>41269</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2652,39 +2656,39 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="29">
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41">
         <v>41272</v>
       </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="29">
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="41">
         <v>41273</v>
       </c>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29">
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="41">
         <v>41269</v>
       </c>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="29">
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="41">
         <v>41269</v>
       </c>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2706,39 +2710,39 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="29">
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41">
         <v>41274</v>
       </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="29">
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="41">
         <v>41275</v>
       </c>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29">
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="41">
         <v>41271</v>
       </c>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="29">
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="41">
         <v>41271</v>
       </c>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2760,39 +2764,39 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="29">
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41">
         <v>41276</v>
       </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="29">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="41">
         <v>41277</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="29">
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="41">
         <v>41269</v>
       </c>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="29">
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="41">
         <v>41269</v>
       </c>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2814,35 +2818,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="29">
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41">
         <v>41278</v>
       </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="29">
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="41">
         <v>41279</v>
       </c>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2864,35 +2868,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="29">
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41">
         <v>41280</v>
       </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="29">
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="41">
         <v>41281</v>
       </c>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2914,35 +2918,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="29">
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41">
         <v>41282</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="29">
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="41">
         <v>41283</v>
       </c>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -2964,29 +2968,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -3008,35 +3012,35 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="29">
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41">
         <v>41278</v>
       </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="29">
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="41">
         <v>41279</v>
       </c>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -3058,35 +3062,35 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="29">
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41">
         <v>41278</v>
       </c>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="29">
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="41">
         <v>41279</v>
       </c>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -3108,35 +3112,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="29">
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41">
         <v>41284</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="29">
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="41">
         <v>41285</v>
       </c>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -3154,29 +3158,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -3194,29 +3198,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -3234,29 +3238,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3274,29 +3278,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3314,29 +3318,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3354,29 +3358,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3394,29 +3398,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="37"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3434,29 +3438,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3474,29 +3478,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3514,29 +3518,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="28"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3554,29 +3558,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="28"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3594,29 +3598,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="28"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3634,29 +3638,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="28"/>
-      <c r="AJ57" s="28"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3674,29 +3678,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3714,29 +3718,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3754,29 +3758,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3822,329 +3826,54 @@
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AG32:AJ32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AG30:AJ30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
@@ -4169,54 +3898,329 @@
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -621,6 +621,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,21 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +976,7 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18:AF18"/>
+      <selection activeCell="W31" sqref="W31:Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="33" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="25" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="25" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="25" t="s">
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="25" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="25" t="s">
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="25" t="s">
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="32"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="37"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1220,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1264,39 +1264,39 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41">
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="29">
         <v>41268</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="41">
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29">
         <v>41269</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="41">
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="29">
         <v>41269</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="41">
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29">
         <v>41269</v>
       </c>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1317,39 +1317,39 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41">
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="29">
         <v>41270</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="41">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29">
         <v>41271</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="41">
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29">
         <v>41270</v>
       </c>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="41">
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29">
         <v>41271</v>
       </c>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1371,39 +1371,39 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41">
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="29">
         <v>41272</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="41">
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29">
         <v>41273</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="41">
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="29">
         <v>41272</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="41">
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29">
         <v>41273</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1425,35 +1425,39 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41">
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="29">
         <v>41274</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="41">
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="29">
         <v>41275</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1475,35 +1479,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41">
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="29">
         <v>41276</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="41">
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29">
         <v>41277</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1522,35 +1526,39 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41">
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="29">
         <v>41278</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="41">
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29">
         <v>41279</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1572,35 +1580,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41">
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="29">
         <v>41280</v>
       </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="41">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29">
         <v>41281</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1622,35 +1630,35 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41">
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="29">
         <v>41282</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="41">
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29">
         <v>41283</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1672,35 +1680,35 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41">
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="29">
         <v>41284</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="41">
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29">
         <v>41285</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1722,35 +1730,39 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41">
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="29">
         <v>41286</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="41">
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29">
         <v>41287</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1772,35 +1784,35 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41">
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="29">
         <v>41288</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="41">
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29">
         <v>41289</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1822,35 +1834,35 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41">
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="29">
         <v>41290</v>
       </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="41">
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29">
         <v>41291</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
@@ -1872,29 +1884,29 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1916,29 +1928,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1960,35 +1972,35 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41">
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="29">
         <v>41268</v>
       </c>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="41">
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29">
         <v>41269</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -2010,35 +2022,39 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41">
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="29">
         <v>41268</v>
       </c>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="41">
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="29">
         <v>41269</v>
       </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -2060,35 +2076,39 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41">
+      <c r="O23" s="26"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="29">
         <v>41270</v>
       </c>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="41">
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29">
         <v>41271</v>
       </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="29">
+        <v>41639</v>
+      </c>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29">
+        <v>41639</v>
+      </c>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -2110,35 +2130,39 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41">
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="29">
         <v>41270</v>
       </c>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="41">
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29">
         <v>41271</v>
       </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2160,35 +2184,39 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41">
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="29">
         <v>41272</v>
       </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="41">
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="29">
         <v>41273</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="29">
+        <v>41639</v>
+      </c>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29">
+        <v>41639</v>
+      </c>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
@@ -2210,29 +2238,29 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2254,35 +2282,39 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41">
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="29">
         <v>41272</v>
       </c>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="41">
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29">
         <v>41273</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2304,35 +2336,35 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="41">
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="29">
         <v>41274</v>
       </c>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="41">
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="29">
         <v>41275</v>
       </c>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2354,35 +2386,39 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="38" t="s">
+      <c r="N29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41">
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="29">
         <v>41274</v>
       </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="41">
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="29">
         <v>41275</v>
       </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="29">
+        <v>41275</v>
+      </c>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="29">
+        <v>41275</v>
+      </c>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2404,35 +2440,39 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="41">
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="29">
         <v>41276</v>
       </c>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="41">
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="29">
         <v>41277</v>
       </c>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29">
+        <v>41639</v>
+      </c>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="29">
+        <v>41639</v>
+      </c>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2454,35 +2494,35 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="38" t="s">
+      <c r="N31" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="41">
+      <c r="O31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="29">
         <v>41276</v>
       </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="41">
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="29">
         <v>41277</v>
       </c>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2504,29 +2544,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2548,39 +2588,39 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="38" t="s">
+      <c r="N33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="41">
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="29">
         <v>41268</v>
       </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="41">
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29">
         <v>41269</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="41">
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="29">
         <v>41269</v>
       </c>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="41">
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="29">
         <v>41269</v>
       </c>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2602,39 +2642,39 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="38" t="s">
+      <c r="N34" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="41">
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="29">
         <v>41270</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="41">
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="29">
         <v>41271</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="41">
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="29">
         <v>41269</v>
       </c>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="41">
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="29">
         <v>41269</v>
       </c>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2656,39 +2696,39 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="38" t="s">
+      <c r="N35" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="41">
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="29">
         <v>41272</v>
       </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="41">
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="29">
         <v>41273</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="41">
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="29">
         <v>41269</v>
       </c>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="41">
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="29">
         <v>41269</v>
       </c>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2710,39 +2750,39 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="38" t="s">
+      <c r="N36" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="41">
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="29">
         <v>41274</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="41">
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="29">
         <v>41275</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="41">
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="29">
         <v>41271</v>
       </c>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="41">
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="29">
         <v>41271</v>
       </c>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2764,39 +2804,39 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="38" t="s">
+      <c r="N37" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="41">
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="29">
         <v>41276</v>
       </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="41">
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="29">
         <v>41277</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="41">
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="29">
         <v>41269</v>
       </c>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="41">
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29">
         <v>41269</v>
       </c>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2818,35 +2858,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="38" t="s">
+      <c r="N38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="41">
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="29">
         <v>41278</v>
       </c>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="41">
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="29">
         <v>41279</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2868,35 +2908,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="38" t="s">
+      <c r="N39" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="41">
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="29">
         <v>41280</v>
       </c>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="41">
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="29">
         <v>41281</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2918,35 +2958,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="41">
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="29">
         <v>41282</v>
       </c>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="41">
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="29">
         <v>41283</v>
       </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -2968,29 +3008,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -3012,35 +3052,39 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="41">
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="29">
         <v>41278</v>
       </c>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="41">
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="29">
         <v>41279</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="29">
+        <v>41639</v>
+      </c>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="29">
+        <v>41639</v>
+      </c>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -3062,35 +3106,35 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="38" t="s">
+      <c r="N43" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41">
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="29">
         <v>41278</v>
       </c>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="41">
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29">
         <v>41279</v>
       </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="37"/>
-      <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -3112,35 +3156,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="38" t="s">
+      <c r="N44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="41">
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="29">
         <v>41284</v>
       </c>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="41">
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29">
         <v>41285</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -3158,29 +3202,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -3198,29 +3242,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -3238,29 +3282,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3278,29 +3322,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3318,29 +3362,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="37"/>
-      <c r="AE49" s="37"/>
-      <c r="AF49" s="37"/>
-      <c r="AG49" s="37"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3358,29 +3402,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3398,29 +3442,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="37"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="37"/>
-      <c r="AE51" s="37"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="37"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="37"/>
-      <c r="AJ51" s="37"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3438,29 +3482,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="28"/>
+      <c r="AJ52" s="28"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3478,29 +3522,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3518,29 +3562,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="37"/>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="37"/>
-      <c r="AH54" s="37"/>
-      <c r="AI54" s="37"/>
-      <c r="AJ54" s="37"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3558,29 +3602,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3598,29 +3642,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3638,29 +3682,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="37"/>
-      <c r="AE57" s="37"/>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="28"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3678,29 +3722,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="37"/>
-      <c r="AB58" s="37"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="37"/>
-      <c r="AE58" s="37"/>
-      <c r="AF58" s="37"/>
-      <c r="AG58" s="37"/>
-      <c r="AH58" s="37"/>
-      <c r="AI58" s="37"/>
-      <c r="AJ58" s="37"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3718,29 +3762,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37"/>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="37"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="37"/>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3758,29 +3802,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
-      <c r="AJ60" s="37"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3826,54 +3870,329 @@
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
@@ -3898,329 +4217,54 @@
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AG32:AJ32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AG30:AJ30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -621,21 +621,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,6 +655,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +976,7 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31:Y31"/>
+      <selection activeCell="AC14" sqref="AC14:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="30" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="30" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="30" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="30" t="s">
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="30" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1220,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1264,39 +1264,39 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="29">
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41">
         <v>41268</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="41">
         <v>41269</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29">
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="41">
         <v>41269</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="29">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="41">
         <v>41269</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1317,39 +1317,39 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="29">
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41">
         <v>41270</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29">
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="41">
         <v>41271</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29">
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="41">
         <v>41270</v>
       </c>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29">
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="41">
         <v>41271</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1371,39 +1371,39 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="29">
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41">
         <v>41272</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="41">
         <v>41273</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29">
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="41">
         <v>41272</v>
       </c>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29">
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="41">
         <v>41273</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1425,39 +1425,39 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="29">
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41">
         <v>41274</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29">
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="41">
         <v>41275</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="29">
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="41">
         <v>41275</v>
       </c>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29">
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="41">
         <v>41275</v>
       </c>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1479,35 +1479,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="29">
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41">
         <v>41276</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="41">
         <v>41277</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1526,39 +1526,39 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="29">
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41">
         <v>41278</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29">
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="41">
         <v>41279</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="29">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="41">
         <v>41275</v>
       </c>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="29">
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="41">
         <v>41275</v>
       </c>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1580,35 +1580,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="29">
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41">
         <v>41280</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29">
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="41">
         <v>41281</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1630,35 +1630,39 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="29">
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41">
         <v>41282</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29">
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="41">
         <v>41283</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="41">
+        <v>41280</v>
+      </c>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="41">
+        <v>41280</v>
+      </c>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1680,35 +1684,35 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29">
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41">
         <v>41284</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="41">
         <v>41285</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1730,39 +1734,39 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41">
         <v>41286</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29">
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="41">
         <v>41287</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="29">
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="41">
         <v>41275</v>
       </c>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="29">
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="41">
         <v>41275</v>
       </c>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1784,35 +1788,35 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29">
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41">
         <v>41288</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="29">
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="41">
         <v>41289</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1834,35 +1838,35 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="29">
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41">
         <v>41290</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29">
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="41">
         <v>41291</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
@@ -1884,29 +1888,29 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1928,29 +1932,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1972,35 +1976,35 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="29">
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41">
         <v>41268</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29">
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="41">
         <v>41269</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -2022,39 +2026,39 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="29">
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41">
         <v>41268</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29">
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="41">
         <v>41269</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="29">
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="41">
         <v>41275</v>
       </c>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="29">
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="41">
         <v>41275</v>
       </c>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -2076,39 +2080,39 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="29">
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41">
         <v>41270</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29">
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="41">
         <v>41271</v>
       </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="29">
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="41">
         <v>41639</v>
       </c>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="29">
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="41">
         <v>41639</v>
       </c>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -2130,39 +2134,39 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="29">
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41">
         <v>41270</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29">
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="41">
         <v>41271</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="29">
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="41">
         <v>41275</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="29">
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="41">
         <v>41275</v>
       </c>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2184,39 +2188,39 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="29">
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41">
         <v>41272</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29">
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="41">
         <v>41273</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29">
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="41">
         <v>41639</v>
       </c>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="29">
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="41">
         <v>41639</v>
       </c>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
@@ -2238,29 +2242,29 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2282,39 +2286,39 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="29">
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41">
         <v>41272</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="29">
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="41">
         <v>41273</v>
       </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="29">
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="41">
         <v>41275</v>
       </c>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="29">
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="41">
         <v>41275</v>
       </c>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2336,35 +2340,35 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="29">
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41">
         <v>41274</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="29">
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="41">
         <v>41275</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2386,39 +2390,39 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="29">
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41">
         <v>41274</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="29">
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="41">
         <v>41275</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="29">
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="41">
         <v>41275</v>
       </c>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="29">
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="41">
         <v>41275</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2440,39 +2444,39 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="29">
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41">
         <v>41276</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="29">
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="41">
         <v>41277</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29">
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="41">
         <v>41639</v>
       </c>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="29">
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="41">
         <v>41639</v>
       </c>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2494,35 +2498,35 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="29">
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41">
         <v>41276</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29">
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="41">
         <v>41277</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2544,29 +2548,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2588,39 +2592,39 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="29">
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41">
         <v>41268</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29">
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="41">
         <v>41269</v>
       </c>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29">
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="41">
         <v>41269</v>
       </c>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="29">
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="41">
         <v>41269</v>
       </c>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2642,39 +2646,39 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="29">
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41">
         <v>41270</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="29">
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="41">
         <v>41271</v>
       </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="29">
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="41">
         <v>41269</v>
       </c>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29">
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="41">
         <v>41269</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2696,39 +2700,39 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="29">
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41">
         <v>41272</v>
       </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="29">
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="41">
         <v>41273</v>
       </c>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29">
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="41">
         <v>41269</v>
       </c>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="29">
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="41">
         <v>41269</v>
       </c>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2750,39 +2754,39 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="29">
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41">
         <v>41274</v>
       </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="29">
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="41">
         <v>41275</v>
       </c>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29">
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="41">
         <v>41271</v>
       </c>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="29">
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="41">
         <v>41271</v>
       </c>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2804,39 +2808,39 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="29">
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41">
         <v>41276</v>
       </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="29">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="41">
         <v>41277</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="29">
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="41">
         <v>41269</v>
       </c>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="29">
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="41">
         <v>41269</v>
       </c>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2858,35 +2862,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="29">
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41">
         <v>41278</v>
       </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="29">
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="41">
         <v>41279</v>
       </c>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2908,35 +2912,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="29">
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41">
         <v>41280</v>
       </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="29">
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="41">
         <v>41281</v>
       </c>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2958,35 +2962,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="29">
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41">
         <v>41282</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="29">
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="41">
         <v>41283</v>
       </c>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -3008,29 +3012,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -3052,39 +3056,39 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="29">
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41">
         <v>41278</v>
       </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="29">
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="41">
         <v>41279</v>
       </c>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="29">
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="41">
         <v>41639</v>
       </c>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="29">
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="41">
         <v>41639</v>
       </c>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -3106,35 +3110,39 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="29">
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41">
         <v>41278</v>
       </c>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="29">
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="41">
         <v>41279</v>
       </c>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="41">
+        <v>41277</v>
+      </c>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="41">
+        <v>41277</v>
+      </c>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -3156,35 +3164,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="29">
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41">
         <v>41284</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="29">
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="41">
         <v>41285</v>
       </c>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -3202,29 +3210,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -3242,29 +3250,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -3282,29 +3290,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3322,29 +3330,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3362,29 +3370,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3402,29 +3410,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3442,29 +3450,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="37"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3482,29 +3490,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3522,29 +3530,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3562,29 +3570,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="28"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3602,29 +3610,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="28"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3642,29 +3650,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="28"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3682,29 +3690,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="28"/>
-      <c r="AJ57" s="28"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3722,29 +3730,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3762,29 +3770,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3802,29 +3810,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3870,329 +3878,54 @@
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AG32:AJ32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AG30:AJ30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
@@ -4217,54 +3950,329 @@
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14:AF14"/>
+      <selection activeCell="Z15" sqref="Z15:AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1991,10 +1991,14 @@
       </c>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
+      <c r="W21" s="41">
+        <v>41281</v>
+      </c>
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="Z21" s="41">
+        <v>41281</v>
+      </c>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
@@ -2355,10 +2359,14 @@
       </c>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
+      <c r="W28" s="41">
+        <v>41281</v>
+      </c>
       <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="Z28" s="41">
+        <v>41281</v>
+      </c>
       <c r="AA28" s="37"/>
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
@@ -2513,10 +2521,14 @@
       </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
+      <c r="W31" s="41">
+        <v>41276</v>
+      </c>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="Z31" s="41">
+        <v>41276</v>
+      </c>
       <c r="AA31" s="37"/>
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
@@ -3968,6 +3980,12 @@
     <mergeCell ref="Z56:AB56"/>
     <mergeCell ref="AC56:AF56"/>
     <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="Q54:S54"/>
     <mergeCell ref="T54:V54"/>
     <mergeCell ref="W54:Y54"/>
@@ -3980,12 +3998,6 @@
     <mergeCell ref="Z53:AB53"/>
     <mergeCell ref="AC53:AF53"/>
     <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
     <mergeCell ref="Q52:S52"/>
     <mergeCell ref="T52:V52"/>
     <mergeCell ref="W52:Y52"/>
@@ -3998,12 +4010,6 @@
     <mergeCell ref="Z51:AB51"/>
     <mergeCell ref="AC51:AF51"/>
     <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
     <mergeCell ref="Q49:S49"/>
     <mergeCell ref="T49:V49"/>
     <mergeCell ref="W49:Y49"/>
@@ -4016,6 +4022,12 @@
     <mergeCell ref="Z47:AB47"/>
     <mergeCell ref="AC47:AF47"/>
     <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="T45:V45"/>
     <mergeCell ref="W45:Y45"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -621,6 +621,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,21 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15:AB15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17:AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="33" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="25" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="25" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="25" t="s">
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="25" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="25" t="s">
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="25" t="s">
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="32"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="37"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1220,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1264,39 +1264,39 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41">
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="29">
         <v>41268</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="41">
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29">
         <v>41269</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="41">
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="29">
         <v>41269</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="41">
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29">
         <v>41269</v>
       </c>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1317,39 +1317,39 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41">
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="29">
         <v>41270</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="41">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29">
         <v>41271</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="41">
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29">
         <v>41270</v>
       </c>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="41">
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29">
         <v>41271</v>
       </c>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1371,39 +1371,39 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41">
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="29">
         <v>41272</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="41">
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29">
         <v>41273</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="41">
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="29">
         <v>41272</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="41">
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29">
         <v>41273</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1425,39 +1425,39 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41">
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="29">
         <v>41274</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="41">
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="29">
         <v>41275</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="41">
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29">
         <v>41275</v>
       </c>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="41">
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29">
         <v>41275</v>
       </c>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1479,35 +1479,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41">
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="29">
         <v>41276</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="41">
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29">
         <v>41277</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1526,39 +1526,39 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41">
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="29">
         <v>41278</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="41">
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29">
         <v>41279</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="41">
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29">
         <v>41275</v>
       </c>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="41">
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29">
         <v>41275</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1580,35 +1580,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41">
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="29">
         <v>41280</v>
       </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="41">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29">
         <v>41281</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1630,39 +1630,39 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41">
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="29">
         <v>41282</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="41">
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29">
         <v>41283</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="41">
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="29">
         <v>41280</v>
       </c>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="41">
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29">
         <v>41280</v>
       </c>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1684,35 +1684,35 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41">
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="29">
         <v>41284</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="41">
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29">
         <v>41285</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1734,39 +1734,39 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41">
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="29">
         <v>41286</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="41">
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29">
         <v>41287</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="41">
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="29">
         <v>41275</v>
       </c>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="41">
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="29">
         <v>41275</v>
       </c>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1788,35 +1788,39 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41">
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="29">
         <v>41288</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="41">
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29">
         <v>41289</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29">
+        <v>41281</v>
+      </c>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="29">
+        <v>41281</v>
+      </c>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1838,35 +1842,35 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41">
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="29">
         <v>41290</v>
       </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="41">
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29">
         <v>41291</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
@@ -1888,29 +1892,29 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1932,29 +1936,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1976,39 +1980,39 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41">
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="29">
         <v>41268</v>
       </c>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="41">
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29">
         <v>41269</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="41">
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="29">
         <v>41281</v>
       </c>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="41">
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29">
         <v>41281</v>
       </c>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -2030,39 +2034,39 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41">
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="29">
         <v>41268</v>
       </c>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="41">
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="29">
         <v>41269</v>
       </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="41">
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="29">
         <v>41275</v>
       </c>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="41">
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29">
         <v>41275</v>
       </c>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -2084,39 +2088,39 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41">
+      <c r="O23" s="26"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="29">
         <v>41270</v>
       </c>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="41">
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29">
         <v>41271</v>
       </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="41">
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="29">
         <v>41639</v>
       </c>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="41">
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29">
         <v>41639</v>
       </c>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -2138,39 +2142,39 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41">
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="29">
         <v>41270</v>
       </c>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="41">
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29">
         <v>41271</v>
       </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="41">
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="29">
         <v>41275</v>
       </c>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="41">
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="29">
         <v>41275</v>
       </c>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2192,39 +2196,39 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41">
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="29">
         <v>41272</v>
       </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="41">
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="29">
         <v>41273</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="41">
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="29">
         <v>41639</v>
       </c>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="41">
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29">
         <v>41639</v>
       </c>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
@@ -2246,29 +2250,29 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2290,39 +2294,39 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41">
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="29">
         <v>41272</v>
       </c>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="41">
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29">
         <v>41273</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="41">
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="29">
         <v>41275</v>
       </c>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="41">
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29">
         <v>41275</v>
       </c>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2344,39 +2348,39 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="41">
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="29">
         <v>41274</v>
       </c>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="41">
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="29">
         <v>41275</v>
       </c>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="41">
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="29">
         <v>41281</v>
       </c>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="41">
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="29">
         <v>41281</v>
       </c>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2398,39 +2402,39 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="38" t="s">
+      <c r="N29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41">
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="29">
         <v>41274</v>
       </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="41">
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="29">
         <v>41275</v>
       </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="41">
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="29">
         <v>41275</v>
       </c>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="41">
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="29">
         <v>41275</v>
       </c>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2452,39 +2456,39 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="41">
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="29">
         <v>41276</v>
       </c>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="41">
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="29">
         <v>41277</v>
       </c>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="41">
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29">
         <v>41639</v>
       </c>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="41">
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="29">
         <v>41639</v>
       </c>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2506,39 +2510,39 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="38" t="s">
+      <c r="N31" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="41">
+      <c r="O31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="29">
         <v>41276</v>
       </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="41">
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="29">
         <v>41277</v>
       </c>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="41">
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="29">
         <v>41276</v>
       </c>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="41">
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="29">
         <v>41276</v>
       </c>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2560,29 +2564,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2604,39 +2608,39 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="38" t="s">
+      <c r="N33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="41">
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="29">
         <v>41268</v>
       </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="41">
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29">
         <v>41269</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="41">
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="29">
         <v>41269</v>
       </c>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="41">
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="29">
         <v>41269</v>
       </c>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2658,39 +2662,39 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="38" t="s">
+      <c r="N34" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="41">
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="29">
         <v>41270</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="41">
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="29">
         <v>41271</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="41">
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="29">
         <v>41269</v>
       </c>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="41">
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="29">
         <v>41269</v>
       </c>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2712,39 +2716,39 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="38" t="s">
+      <c r="N35" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="41">
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="29">
         <v>41272</v>
       </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="41">
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="29">
         <v>41273</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="41">
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="29">
         <v>41269</v>
       </c>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="41">
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="29">
         <v>41269</v>
       </c>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2766,39 +2770,39 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="38" t="s">
+      <c r="N36" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="41">
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="29">
         <v>41274</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="41">
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="29">
         <v>41275</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="41">
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="29">
         <v>41271</v>
       </c>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="41">
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="29">
         <v>41271</v>
       </c>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2820,39 +2824,39 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="38" t="s">
+      <c r="N37" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="41">
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="29">
         <v>41276</v>
       </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="41">
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="29">
         <v>41277</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="41">
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="29">
         <v>41269</v>
       </c>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="41">
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29">
         <v>41269</v>
       </c>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2874,35 +2878,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="38" t="s">
+      <c r="N38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="41">
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="29">
         <v>41278</v>
       </c>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="41">
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="29">
         <v>41279</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2924,35 +2928,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="38" t="s">
+      <c r="N39" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="41">
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="29">
         <v>41280</v>
       </c>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="41">
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="29">
         <v>41281</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2974,35 +2978,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="41">
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="29">
         <v>41282</v>
       </c>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="41">
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="29">
         <v>41283</v>
       </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -3024,29 +3028,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -3068,39 +3072,39 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="41">
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="29">
         <v>41278</v>
       </c>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="41">
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="29">
         <v>41279</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="41">
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="29">
         <v>41639</v>
       </c>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="41">
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="29">
         <v>41639</v>
       </c>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -3122,39 +3126,39 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="38" t="s">
+      <c r="N43" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41">
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="29">
         <v>41278</v>
       </c>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="41">
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29">
         <v>41279</v>
       </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="41">
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="29">
         <v>41277</v>
       </c>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="41">
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="29">
         <v>41277</v>
       </c>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="37"/>
-      <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -3176,35 +3180,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="38" t="s">
+      <c r="N44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="41">
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="29">
         <v>41284</v>
       </c>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="41">
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29">
         <v>41285</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -3222,29 +3226,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -3262,29 +3266,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -3302,29 +3306,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3342,29 +3346,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3382,29 +3386,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="37"/>
-      <c r="AE49" s="37"/>
-      <c r="AF49" s="37"/>
-      <c r="AG49" s="37"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3422,29 +3426,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3462,29 +3466,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="37"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="37"/>
-      <c r="AE51" s="37"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="37"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="37"/>
-      <c r="AJ51" s="37"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3502,29 +3506,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="28"/>
+      <c r="AJ52" s="28"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3542,29 +3546,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3582,29 +3586,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="37"/>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="37"/>
-      <c r="AH54" s="37"/>
-      <c r="AI54" s="37"/>
-      <c r="AJ54" s="37"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3622,29 +3626,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3662,29 +3666,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3702,29 +3706,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="37"/>
-      <c r="AE57" s="37"/>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="28"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3742,29 +3746,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="37"/>
-      <c r="AB58" s="37"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="37"/>
-      <c r="AE58" s="37"/>
-      <c r="AF58" s="37"/>
-      <c r="AG58" s="37"/>
-      <c r="AH58" s="37"/>
-      <c r="AI58" s="37"/>
-      <c r="AJ58" s="37"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3782,29 +3786,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37"/>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="37"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="37"/>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3822,29 +3826,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
-      <c r="AJ60" s="37"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3890,54 +3894,329 @@
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AC57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
@@ -3962,329 +4241,54 @@
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AC57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AG32:AJ32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AG30:AJ30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Students Project/BingXing/整理碑帖详日程.xlsx
+++ b/Students Project/BingXing/整理碑帖详日程.xlsx
@@ -621,21 +621,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,6 +655,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +976,7 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17:AB17"/>
+      <selection activeCell="Z15" sqref="Z15:AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1106,100 +1106,100 @@
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="30" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="30" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="30" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="30" t="s">
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="30" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="31"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
@@ -1220,29 +1220,29 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="13"/>
     </row>
@@ -1264,39 +1264,39 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="29">
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41">
         <v>41268</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="41">
         <v>41269</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29">
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="41">
         <v>41269</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="29">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="41">
         <v>41269</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="13"/>
     </row>
@@ -1317,39 +1317,39 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="29">
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41">
         <v>41270</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29">
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="41">
         <v>41271</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29">
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="41">
         <v>41270</v>
       </c>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29">
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="41">
         <v>41271</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="13"/>
     </row>
@@ -1371,39 +1371,39 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="29">
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41">
         <v>41272</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="41">
         <v>41273</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29">
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="41">
         <v>41272</v>
       </c>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29">
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="41">
         <v>41273</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="13"/>
     </row>
@@ -1425,39 +1425,39 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="29">
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41">
         <v>41274</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29">
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="41">
         <v>41275</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="29">
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="41">
         <v>41275</v>
       </c>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29">
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="41">
         <v>41275</v>
       </c>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="13"/>
     </row>
@@ -1479,35 +1479,35 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="29">
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41">
         <v>41276</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="41">
         <v>41277</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="13"/>
     </row>
@@ -1526,39 +1526,39 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="29">
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41">
         <v>41278</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29">
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="41">
         <v>41279</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="29">
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="41">
         <v>41275</v>
       </c>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="29">
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="41">
         <v>41275</v>
       </c>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="13"/>
     </row>
@@ -1580,35 +1580,35 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="29">
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41">
         <v>41280</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29">
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="41">
         <v>41281</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="13"/>
     </row>
@@ -1630,39 +1630,39 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="29">
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41">
         <v>41282</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29">
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="41">
         <v>41283</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="29">
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="41">
         <v>41280</v>
       </c>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="29">
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="41">
         <v>41280</v>
       </c>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="13"/>
     </row>
@@ -1684,35 +1684,39 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29">
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41">
         <v>41284</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="41">
         <v>41285</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="41">
+        <v>41287</v>
+      </c>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="41">
+        <v>41287</v>
+      </c>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="13"/>
     </row>
@@ -1734,39 +1738,39 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41">
         <v>41286</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29">
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="41">
         <v>41287</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="29">
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="41">
         <v>41275</v>
       </c>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="29">
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="41">
         <v>41275</v>
       </c>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="13"/>
     </row>
@@ -1788,39 +1792,39 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29">
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41">
         <v>41288</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="29">
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="41">
         <v>41289</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="29">
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="41">
         <v>41281</v>
       </c>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="29">
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="41">
         <v>41281</v>
       </c>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="13"/>
     </row>
@@ -1842,35 +1846,35 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="29">
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41">
         <v>41290</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29">
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="41">
         <v>41291</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="13"/>
     </row>
@@ -1892,29 +1896,29 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="13"/>
     </row>
@@ -1936,29 +1940,29 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="13"/>
     </row>
@@ -1980,39 +1984,39 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="29">
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41">
         <v>41268</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29">
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="41">
         <v>41269</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="29">
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="41">
         <v>41281</v>
       </c>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="29">
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="41">
         <v>41281</v>
       </c>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="13"/>
     </row>
@@ -2034,39 +2038,39 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="29">
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41">
         <v>41268</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29">
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="41">
         <v>41269</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="29">
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="41">
         <v>41275</v>
       </c>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="29">
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="41">
         <v>41275</v>
       </c>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13"/>
     </row>
@@ -2088,39 +2092,39 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="29">
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41">
         <v>41270</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29">
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="41">
         <v>41271</v>
       </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="29">
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="41">
         <v>41639</v>
       </c>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="29">
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="41">
         <v>41639</v>
       </c>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="13"/>
     </row>
@@ -2142,39 +2146,39 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="29">
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41">
         <v>41270</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29">
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="41">
         <v>41271</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="29">
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="41">
         <v>41275</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="29">
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="41">
         <v>41275</v>
       </c>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="13"/>
     </row>
@@ -2196,39 +2200,39 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="29">
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41">
         <v>41272</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29">
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="41">
         <v>41273</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29">
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="41">
         <v>41639</v>
       </c>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="29">
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="41">
         <v>41639</v>
       </c>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="13"/>
     </row>
@@ -2250,29 +2254,29 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="13"/>
     </row>
@@ -2294,39 +2298,39 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="29">
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41">
         <v>41272</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="29">
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="41">
         <v>41273</v>
       </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="29">
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="41">
         <v>41275</v>
       </c>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="29">
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="41">
         <v>41275</v>
       </c>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="13"/>
     </row>
@@ -2348,39 +2352,39 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="29">
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41">
         <v>41274</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="29">
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="41">
         <v>41275</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="29">
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="41">
         <v>41281</v>
       </c>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="29">
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="41">
         <v>41281</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="13"/>
     </row>
@@ -2402,39 +2406,39 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="29">
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41">
         <v>41274</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="29">
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="41">
         <v>41275</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="29">
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="41">
         <v>41275</v>
       </c>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="29">
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="41">
         <v>41275</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="13"/>
     </row>
@@ -2456,39 +2460,39 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="29">
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41">
         <v>41276</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="29">
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="41">
         <v>41277</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29">
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="41">
         <v>41639</v>
       </c>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="29">
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="41">
         <v>41639</v>
       </c>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="13"/>
     </row>
@@ -2510,39 +2514,39 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="29">
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41">
         <v>41276</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29">
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="41">
         <v>41277</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="29">
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="41">
         <v>41276</v>
       </c>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="29">
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="41">
         <v>41276</v>
       </c>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="13"/>
     </row>
@@ -2564,29 +2568,29 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="13"/>
     </row>
@@ -2608,39 +2612,39 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="29">
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41">
         <v>41268</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29">
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="41">
         <v>41269</v>
       </c>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29">
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="41">
         <v>41269</v>
       </c>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="29">
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="41">
         <v>41269</v>
       </c>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="13"/>
     </row>
@@ -2662,39 +2666,39 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="29">
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41">
         <v>41270</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="29">
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="41">
         <v>41271</v>
       </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="29">
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="41">
         <v>41269</v>
       </c>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29">
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="41">
         <v>41269</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="13"/>
     </row>
@@ -2716,39 +2720,39 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="29">
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41">
         <v>41272</v>
       </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="29">
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="41">
         <v>41273</v>
       </c>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29">
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="41">
         <v>41269</v>
       </c>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="29">
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="41">
         <v>41269</v>
       </c>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="13"/>
     </row>
@@ -2770,39 +2774,39 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="29">
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41">
         <v>41274</v>
       </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="29">
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="41">
         <v>41275</v>
       </c>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29">
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="41">
         <v>41271</v>
       </c>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="29">
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="41">
         <v>41271</v>
       </c>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="13"/>
     </row>
@@ -2824,39 +2828,39 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="29">
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41">
         <v>41276</v>
       </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="29">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="41">
         <v>41277</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="29">
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="41">
         <v>41269</v>
       </c>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="29">
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="41">
         <v>41269</v>
       </c>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="13"/>
     </row>
@@ -2878,35 +2882,35 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="29">
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41">
         <v>41278</v>
       </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="29">
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="41">
         <v>41279</v>
       </c>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="13"/>
     </row>
@@ -2928,35 +2932,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="29">
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41">
         <v>41280</v>
       </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="29">
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="41">
         <v>41281</v>
       </c>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="13"/>
     </row>
@@ -2978,35 +2982,35 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="29">
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41">
         <v>41282</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="29">
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="41">
         <v>41283</v>
       </c>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="13"/>
     </row>
@@ -3028,29 +3032,29 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="13"/>
     </row>
@@ -3072,39 +3076,39 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="29">
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41">
         <v>41278</v>
       </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="29">
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="41">
         <v>41279</v>
       </c>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="29">
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="41">
         <v>41639</v>
       </c>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="29">
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="41">
         <v>41639</v>
       </c>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="13"/>
     </row>
@@ -3126,39 +3130,39 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="29">
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41">
         <v>41278</v>
       </c>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="29">
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="41">
         <v>41279</v>
       </c>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="29">
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="41">
         <v>41277</v>
       </c>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="29">
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="41">
         <v>41277</v>
       </c>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
       <c r="AK43" s="14"/>
       <c r="AL43" s="13"/>
     </row>
@@ -3180,35 +3184,35 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="29">
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41">
         <v>41284</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="29">
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="41">
         <v>41285</v>
       </c>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="13"/>
     </row>
@@ -3226,29 +3230,29 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
       <c r="AK45" s="14"/>
       <c r="AL45" s="13"/>
     </row>
@@ -3266,29 +3270,29 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
       <c r="AK46" s="14"/>
       <c r="AL46" s="13"/>
     </row>
@@ -3306,29 +3310,29 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="13"/>
     </row>
@@ -3346,29 +3350,29 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="13"/>
     </row>
@@ -3386,29 +3390,29 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="13"/>
     </row>
@@ -3426,29 +3430,29 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
       <c r="AK50" s="14"/>
       <c r="AL50" s="13"/>
     </row>
@@ -3466,29 +3470,29 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="37"/>
       <c r="AK51" s="14"/>
       <c r="AL51" s="13"/>
     </row>
@@ -3506,29 +3510,29 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
       <c r="AK52" s="14"/>
       <c r="AL52" s="13"/>
     </row>
@@ -3546,29 +3550,29 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
       <c r="AK53" s="14"/>
       <c r="AL53" s="13"/>
     </row>
@@ -3586,29 +3590,29 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="28"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="13"/>
     </row>
@@ -3626,29 +3630,29 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="28"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
       <c r="AK55" s="14"/>
       <c r="AL55" s="13"/>
     </row>
@@ -3666,29 +3670,29 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="28"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
       <c r="AK56" s="14"/>
       <c r="AL56" s="13"/>
     </row>
@@ -3706,29 +3710,29 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="28"/>
-      <c r="AJ57" s="28"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
       <c r="AK57" s="14"/>
       <c r="AL57" s="13"/>
     </row>
@@ -3746,29 +3750,29 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="13"/>
     </row>
@@ -3786,29 +3790,29 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
       <c r="AK59" s="14"/>
       <c r="AL59" s="13"/>
     </row>
@@ -3826,29 +3830,29 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
       <c r="AK60" s="14"/>
       <c r="AL60" s="13"/>
     </row>
@@ -3894,305 +3898,78 @@
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AG32:AJ32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AG30:AJ30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="AC60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AC59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AC58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
     <mergeCell ref="Q52:S52"/>
     <mergeCell ref="T52:V52"/>
     <mergeCell ref="W52:Y52"/>
@@ -4217,78 +3994,305 @@
     <mergeCell ref="Z56:AB56"/>
     <mergeCell ref="AC56:AF56"/>
     <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="AC60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AC59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AC58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AG32:AJ32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AG30:AJ30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
